--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2754.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2754.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161096146796977</v>
+        <v>1.813315749168396</v>
       </c>
       <c r="B1">
-        <v>2.421100880995357</v>
+        <v>2.236294269561768</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.390683889389038</v>
       </c>
       <c r="D1">
-        <v>2.367983415936597</v>
+        <v>3.224337100982666</v>
       </c>
       <c r="E1">
-        <v>1.223183327599067</v>
+        <v>1.691534638404846</v>
       </c>
     </row>
   </sheetData>
